--- a/config/JuiceZombies/Item.xlsx
+++ b/config/JuiceZombies/Item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="7860"/>
+    <workbookView windowWidth="16548" windowHeight="6168"/>
   </bookViews>
   <sheets>
     <sheet name="Item|道具" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,8 @@
           <t xml:space="preserve">
 1 资源
 2 碎片
-3 杂物箱子--包含资源和碎片</t>
+3 杂物箱子--包含资源和碎片
+4 英雄</t>
         </r>
       </text>
     </comment>
@@ -1308,12 +1309,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C11" sqref="C11"/>
+      <selection pane="topRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8"/>
@@ -1631,8 +1632,38 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" ht="18.65" customHeight="1"/>
-    <row r="12" ht="16.25" customHeight="1"/>
+    <row r="11" ht="18.65" customHeight="1" spans="1:2">
+      <c r="A11" s="2">
+        <v>10001</v>
+      </c>
+      <c r="B11" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" ht="16.25" customHeight="1" spans="1:2">
+      <c r="A12" s="2">
+        <v>10002</v>
+      </c>
+      <c r="B12" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2">
+        <v>10003</v>
+      </c>
+      <c r="B13" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2">
+        <v>10004</v>
+      </c>
+      <c r="B14" s="2">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A4:K138" etc:filterBottomFollowUsedRange="0">
     <extLst/>

--- a/config/JuiceZombies/Item.xlsx
+++ b/config/JuiceZombies/Item.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16548" windowHeight="6168"/>
+    <workbookView windowWidth="17412" windowHeight="4248"/>
   </bookViews>
   <sheets>
     <sheet name="Item|道具" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Item|道具'!$A$4:$K$138</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Item|道具'!$A$4:$L$139</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
     <author>许天盈</author>
   </authors>
   <commentList>
-    <comment ref="B4" authorId="0">
+    <comment ref="C4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -60,7 +60,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C4" authorId="0">
+    <comment ref="D4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>说明</t>
   </si>
   <si>
     <t>道具类型</t>
@@ -1309,72 +1312,71 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="A8" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C14" sqref="C14"/>
+      <selection pane="topRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="9" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.3611111111111" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.7222222222222" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.7222222222222" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.0925925925926" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.7222222222222" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.0925925925926" style="2" customWidth="1"/>
-    <col min="10" max="10" width="19.3611111111111" style="2" customWidth="1"/>
-    <col min="11" max="11" width="14.2685185185185" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="2"/>
+    <col min="1" max="2" width="9" style="2"/>
+    <col min="3" max="3" width="9" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.3611111111111" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.7222222222222" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.7222222222222" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.0925925925926" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.7222222222222" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.0925925925926" style="2" customWidth="1"/>
+    <col min="11" max="11" width="19.3611111111111" style="2" customWidth="1"/>
+    <col min="12" max="12" width="14.2685185185185" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.2" spans="1:11">
+    <row r="1" s="1" customFormat="1" ht="13.2" spans="1:12">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="13.2" spans="1:11">
+    <row r="2" s="1" customFormat="1" ht="13.2" spans="1:12">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
@@ -1382,34 +1384,35 @@
         <v>11</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="13.2" spans="1:11">
+    <row r="3" s="1" customFormat="1" ht="13.2" spans="1:12">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
         <v>15</v>
       </c>
@@ -1420,7 +1423,7 @@
         <v>15</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>16</v>
@@ -1437,8 +1440,11 @@
       <c r="K3" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="L3" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13.2" spans="1:11">
+    <row r="4" s="1" customFormat="1" ht="13.2" spans="1:12">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -1472,200 +1478,212 @@
       <c r="K4" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="L4" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="5" ht="17.4" customHeight="1" spans="1:11">
+    <row r="5" ht="17.4" customHeight="1" spans="1:12">
       <c r="A5" s="2">
         <v>101</v>
       </c>
-      <c r="B5" s="2">
+      <c r="C5" s="2">
         <v>1</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="2">
         <v>0</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
         <v>1</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="16.25" customHeight="1" spans="1:11">
+    <row r="6" ht="16.25" customHeight="1" spans="1:12">
       <c r="A6" s="2">
         <v>102</v>
       </c>
-      <c r="B6" s="2">
+      <c r="C6" s="2">
         <v>1</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6" s="2">
         <v>0</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G6" s="2">
         <v>1</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="7" ht="16.75" customHeight="1" spans="1:11">
+    <row r="7" ht="16.75" customHeight="1" spans="1:12">
       <c r="A7" s="2">
         <v>501</v>
       </c>
-      <c r="B7" s="2">
+      <c r="C7" s="2">
         <v>3</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E7" s="2">
         <v>1</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="2">
+      <c r="F7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="2">
         <v>1</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" s="2">
         <v>99</v>
       </c>
     </row>
-    <row r="8" ht="16.75" customHeight="1" spans="1:11">
+    <row r="8" ht="16.75" customHeight="1" spans="1:12">
       <c r="A8" s="2">
         <v>201</v>
       </c>
-      <c r="B8" s="2">
+      <c r="C8" s="2">
         <v>2</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E8" s="2">
         <v>1</v>
       </c>
-      <c r="F8" s="2">
+      <c r="G8" s="2">
         <v>1</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="2">
         <v>98</v>
       </c>
     </row>
-    <row r="9" ht="16.75" customHeight="1" spans="1:11">
+    <row r="9" ht="16.75" customHeight="1" spans="1:12">
       <c r="A9" s="2">
         <v>202</v>
       </c>
-      <c r="B9" s="2">
+      <c r="C9" s="2">
         <v>2</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E9" s="2">
         <v>0</v>
       </c>
-      <c r="F9" s="2">
+      <c r="G9" s="2">
         <v>1</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="10" ht="18.65" customHeight="1" spans="1:11">
+    <row r="10" ht="18.65" customHeight="1" spans="1:12">
       <c r="A10" s="2">
         <v>203</v>
       </c>
-      <c r="B10" s="2">
+      <c r="C10" s="2">
         <v>2</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E10" s="2">
         <v>0</v>
       </c>
-      <c r="F10" s="2">
+      <c r="G10" s="2">
         <v>1</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L10" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="11" ht="18.65" customHeight="1" spans="1:2">
+    <row r="11" ht="18.65" customHeight="1" spans="1:3">
       <c r="A11" s="2">
+        <v>10000</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" ht="18.65" customHeight="1" spans="1:3">
+      <c r="A12" s="2">
         <v>10001</v>
       </c>
-      <c r="B11" s="2">
+      <c r="C12" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="12" ht="16.25" customHeight="1" spans="1:2">
-      <c r="A12" s="2">
+    <row r="13" ht="16.25" customHeight="1" spans="1:3">
+      <c r="A13" s="2">
         <v>10002</v>
       </c>
-      <c r="B12" s="2">
+      <c r="C13" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="2">
+    <row r="14" spans="1:3">
+      <c r="A14" s="2">
         <v>10003</v>
       </c>
-      <c r="B13" s="2">
+      <c r="C14" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="2">
+    <row r="15" spans="1:3">
+      <c r="A15" s="2">
         <v>10004</v>
       </c>
-      <c r="B14" s="2">
+      <c r="C15" s="2">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A4:K138" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A4:L139" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config/JuiceZombies/Item.xlsx
+++ b/config/JuiceZombies/Item.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProjects\JuiceZombies\config\JuiceZombies\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35200A40-6135-418C-B273-06CCF8AA0D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="17412" windowHeight="4248"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item|道具" sheetId="1" r:id="rId1"/>
@@ -13,29 +19,16 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Item|道具'!$A$4:$L$139</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>许天盈</author>
   </authors>
   <commentList>
-    <comment ref="C4" authorId="0">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -53,14 +46,13 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-1 资源
-2 碎片
-3 杂物箱子--包含资源和碎片
-4 英雄</t>
+1 物品
+2 英雄
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -83,7 +75,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="0">
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -105,7 +97,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A8" authorId="0">
+    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -281,14 +273,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,150 +302,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
@@ -470,8 +312,14 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -480,7 +328,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799432355723746"/>
+        <fgColor theme="8" tint="0.79940183721427049"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,194 +338,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -700,251 +362,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -965,61 +385,17 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1306,37 +682,36 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="A8" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight" activeCell="B11" sqref="B11"/>
+      <selection pane="topRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9" style="2"/>
     <col min="3" max="3" width="9" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.3611111111111" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.7222222222222" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.7222222222222" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21" style="2" customWidth="1"/>
     <col min="7" max="7" width="9" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.0925925925926" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15.7222222222222" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.0925925925926" style="2" customWidth="1"/>
-    <col min="11" max="11" width="19.3611111111111" style="2" customWidth="1"/>
-    <col min="12" max="12" width="14.2685185185185" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="19.33203125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="14.21875" style="2" customWidth="1"/>
     <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.2" spans="1:12">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1372,7 +747,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="13.2" spans="1:12">
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -1408,7 +783,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="13.2" spans="1:12">
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
@@ -1444,7 +819,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13.2" spans="1:12">
+    <row r="4" spans="1:12" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -1482,7 +857,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" ht="17.4" customHeight="1" spans="1:12">
+    <row r="5" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>101</v>
       </c>
@@ -1508,7 +883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="16.25" customHeight="1" spans="1:12">
+    <row r="6" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>102</v>
       </c>
@@ -1534,12 +909,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" ht="16.75" customHeight="1" spans="1:12">
+    <row r="7" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>501</v>
       </c>
       <c r="C7" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
@@ -1563,12 +938,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" ht="16.75" customHeight="1" spans="1:12">
+    <row r="8" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>201</v>
       </c>
       <c r="C8" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
@@ -1589,12 +964,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" ht="16.75" customHeight="1" spans="1:12">
+    <row r="9" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>202</v>
       </c>
       <c r="C9" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
@@ -1615,12 +990,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" ht="18.65" customHeight="1" spans="1:12">
+    <row r="10" spans="1:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>203</v>
       </c>
       <c r="C10" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
@@ -1641,54 +1016,51 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" ht="18.65" customHeight="1" spans="1:3">
+    <row r="11" spans="1:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10000</v>
       </c>
-      <c r="B11" s="2"/>
       <c r="C11" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" ht="18.65" customHeight="1" spans="1:3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10001</v>
       </c>
       <c r="C12" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" ht="16.25" customHeight="1" spans="1:3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>10002</v>
       </c>
       <c r="C13" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>10003</v>
       </c>
       <c r="C14" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>10004</v>
       </c>
       <c r="C15" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A4:L139" etc:filterBottomFollowUsedRange="0">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A4:L139" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/config/JuiceZombies/Item.xlsx
+++ b/config/JuiceZombies/Item.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProjects\JuiceZombies\config\JuiceZombies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35200A40-6135-418C-B273-06CCF8AA0D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{096CB61D-1DDD-4F59-9ADF-B3A9DE28143C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -268,13 +268,17 @@
   </si>
   <si>
     <t>icon_hero2_part</t>
+  </si>
+  <si>
+    <t>all</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -317,6 +321,13 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -368,7 +379,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -382,6 +393,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -692,7 +706,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C7" sqref="C7"/>
+      <selection pane="topRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8" x14ac:dyDescent="0.25"/>
@@ -702,7 +716,7 @@
     <col min="4" max="4" width="12.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.6640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="21" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.21875" style="2" customWidth="1"/>
     <col min="8" max="8" width="12.109375" style="2" customWidth="1"/>
     <col min="9" max="9" width="15.6640625" style="2" customWidth="1"/>
     <col min="10" max="10" width="13.109375" style="2" customWidth="1"/>
@@ -800,8 +814,8 @@
       <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>16</v>
+      <c r="G3" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>16</v>
